--- a/biology/Zoologie/Hebomoia_glaucippe/Hebomoia_glaucippe.xlsx
+++ b/biology/Zoologie/Hebomoia_glaucippe/Hebomoia_glaucippe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Grande piéride disparate (Hebomoia glaucippe) est un insecte lépidoptère  de la famille des Pieridae, de la sous-famille des Pierinae et du genre Hebomoia.
-C'est la plus grande piéride d'Asie[1].
+C'est la plus grande piéride d'Asie.
 </t>
         </is>
       </c>
@@ -512,11 +524,48 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hebomoia glaucippe a été décrit par Carl von Linné en 1758 sous le nom initial de Papilio glaucippe[2].
-Sous-espèces
-Hebomoia glaucippe glaucippe; présent en Inde et en Chine
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hebomoia glaucippe a été décrit par Carl von Linné en 1758 sous le nom initial de Papilio glaucippe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hebomoia_glaucippe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hebomoia_glaucippe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hebomoia glaucippe glaucippe; présent en Inde et en Chine
 Hebomoia glaucippe anaxandra Fruhstorfer, 1910
 Hebomoia glaucippe anomala Pendlebury, 1939
 Hebomoia glaucippe aturia Fruhstorfer, 1910; présent dans le sud de la Birmanie, en Thaïlande et en Malaisie.
@@ -545,43 +594,114 @@
 Hebomoia glaucippe theia Nishimura, 1987
 Hebomoia glaucippe timorensis (Wallace, 1863)
 Hebomoia glaucippe uedai Morita, 1996
-Hebomoia glaucippe vossi (Maitland, 1859); présent à Nias
-Noms vernaculaires
-La Grande piéride disparate se nomme Great Orange Tip en anglais[2].
+Hebomoia glaucippe vossi (Maitland, 1859); présent à Nias</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hebomoia_glaucippe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hebomoia_glaucippe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Grande piéride disparate se nomme Great Orange Tip en anglais.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hebomoia_glaucippe</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hebomoia_glaucippe</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hebomoia_glaucippe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hebomoia_glaucippe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Grande piéride disparate est un papillon d'une envergure de 90 mm à 100 mm au corps blanc[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Grande piéride disparate est un papillon d'une envergure de 90 mm à 100 mm au corps blanc.
 Il existe deux formes, une de la saison sèche et une de la saison humide, plus claire et plus sombre. Sur le dessus les ailes sont blanches avec aux ailes antérieures un apex orange bordé de marron. Sur le revers seule la partie basale des ailes antérieures est blanches, la partie distale et les ailes postérieures sont beige pointillées de marron.
-Chenille
-La chenille est verte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hebomoia_glaucippe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hebomoia_glaucippe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est verte.
 			la chenille ressemble au serpent Ahaetulla nasuta
 			Chenille
 			Chenille
@@ -589,98 +709,142 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hebomoia_glaucippe</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hebomoia_glaucippe</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hebomoia_glaucippe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hebomoia_glaucippe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Crateva dont Crateva akansonii et Crateva religiosa, des Capparis  dont Capparis cantoniensis, Capparis sikkimensis et Capparis mooni, des Brassica et Cleome spinosa[4].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Crateva dont Crateva akansonii et Crateva religiosa, des Capparis  dont Capparis cantoniensis, Capparis sikkimensis et Capparis mooni, des Brassica et Cleome spinosa.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hebomoia_glaucippe</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hebomoia_glaucippe</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hebomoia_glaucippe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hebomoia_glaucippe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La Grande piéride disparate est présente dans tout le sud-est de l'Asie, Inde, sud de la Chine, Taïwan, Japon, Birmanie, Thaïlande, Malaisie, Philippines, Sumatra, Java, Bornéo, Sulawesi[2].
-Biotope
-Il réside dans de nombreux types d'habitats, dans les forêts tropicales mais surtout dans les vallées[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Grande piéride disparate est présente dans tout le sud-est de l'Asie, Inde, sud de la Chine, Taïwan, Japon, Birmanie, Thaïlande, Malaisie, Philippines, Sumatra, Java, Bornéo, Sulawesi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hebomoia_glaucippe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hebomoia_glaucippe</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans de nombreux types d'habitats, dans les forêts tropicales mais surtout dans les vallées.
 Sur les autres projets Wikimedia :
 Hebomoia glaucippe, sur Wikimedia CommonsHebomoia glaucippe, sur Wikispecies
-Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hebomoia_glaucippe</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hebomoia_glaucippe</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hebomoia_glaucippe</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hebomoia_glaucippe</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
